--- a/設計書/技術仕様書.xlsx
+++ b/設計書/技術仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="14400" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,43 +200,64 @@
   </si>
   <si>
     <r>
+      <t>Javaは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、業務システムやWebアプリ開発で広く使われているプログラミング言語。</t>
+    </r>
+  </si>
+  <si>
+    <t>OSに依存せず同じプログラムを動かせるため、安定したシステムを作りやすい。</t>
+  </si>
+  <si>
+    <t>企業での実績が多く、情報やノウハウが豊富なため採用。</t>
+  </si>
+  <si>
+    <t>2.2 ビルドツール</t>
+  </si>
+  <si>
+    <t>設定ファイル</t>
+  </si>
+  <si>
+    <t>build.gradle</t>
+  </si>
+  <si>
+    <r>
+      <t>Gradleとは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、Javaなどの開発で使う</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Javaは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、業務システムやWebアプリ開発で広く使われているプログラミング言語です。</t>
-    </r>
-  </si>
-  <si>
-    <t>OSに依存せず同じプログラムを動かせるため、安定したシステムを作れます。</t>
-  </si>
-  <si>
-    <t>企業での実績が多く、情報やノウハウが豊富なため採用されています。</t>
-  </si>
-  <si>
-    <t>2.2 ビルドツール</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
-  </si>
-  <si>
-    <t>build.gradle</t>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ビルドツール。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Javaやライブラリの</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -246,7 +267,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gradleとは</t>
+      <t>バージョンを統一管理</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +277,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、Javaなどの開発で使う</t>
+      <t>し、個人差による動作違いを防ぐ。</t>
+    </r>
+  </si>
+  <si>
+    <t>設定を柔軟に書けて高速に動作し、Spring Bootなどの主流技術と相性が良いため採用。</t>
+  </si>
+  <si>
+    <t>2.3 フレームワーク（基盤）</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Spring Bootは、Webアプリケーションを</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +305,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ビルドツール</t>
+      <t>少ない設定で素早く作れる</t>
     </r>
     <r>
       <rPr>
@@ -277,10 +315,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>です。</t>
-    </r>
-  </si>
-  <si>
+      <t>フレームワーク。</t>
+    </r>
+  </si>
+  <si>
+    <t>サーバ起動や設定が簡単で、業務システムでよく使われるため採用。</t>
+  </si>
+  <si>
+    <t>3. Webアプリケーション関連</t>
+  </si>
+  <si>
+    <t>3.1 Webフレームワーク（サーバサイド）</t>
+  </si>
+  <si>
+    <t>技術</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>Spring Boot Web</t>
+  </si>
+  <si>
+    <t>Webリクエストの受付、画面表示、API処理</t>
+  </si>
+  <si>
+    <t>ブラウザからのアクセスを受け取り、画面表示、データ処理の役割を担う。</t>
+  </si>
+  <si>
+    <t>3.2 テンプレートエンジン（画面表示）</t>
+  </si>
+  <si>
+    <t>HTML画面の生成</t>
+  </si>
+  <si>
+    <r>
+      <t>Thymeleafとは</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -289,8 +360,106 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Javaやライブラリの</t>
-    </r>
+      <t>、JavaのWebアプリで使われる画面表示用のテンプレートエンジン。</t>
+    </r>
+  </si>
+  <si>
+    <t>HTMLにJavaの値を埋め込み、画面を動的に表示できる。</t>
+  </si>
+  <si>
+    <t>HTMLの形を崩さずに書けてSpring Bootと相性が良いため採用。</t>
+  </si>
+  <si>
+    <t>4. データベース関連</t>
+  </si>
+  <si>
+    <t>4.1 データベース</t>
+  </si>
+  <si>
+    <t>業務データ（商品・在庫など）を保存するためのデータベース。</t>
+  </si>
+  <si>
+    <t>オープンソースで、業務利用実績が豊富なため採用。</t>
+  </si>
+  <si>
+    <t>4.2 ORM / DBアクセス技術</t>
+  </si>
+  <si>
+    <t>SQLを使ったDB操作</t>
+  </si>
+  <si>
+    <r>
+      <t>MyBatisとは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、Javaからデータベースを操作するためのフレームワーク。</t>
+    </r>
+  </si>
+  <si>
+    <t>JavaのコードとSQLを分けて管理できる仕組みを提供する。</t>
+  </si>
+  <si>
+    <r>
+      <t>マッパー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にSQLを定義し、JavaのメソッドとSQLを対応づける。</t>
+    </r>
+  </si>
+  <si>
+    <t>SQLの実行結果はJavaのクラスとして受け取れる。</t>
+  </si>
+  <si>
+    <t>業務要件に合わせてSQLを細かく制御できるため採用。</t>
+  </si>
+  <si>
+    <t>5. ソースコード自動生成</t>
+  </si>
+  <si>
+    <t>5.1 MyBatis Generator（MBG）</t>
+  </si>
+  <si>
+    <t>DB定義からコード自動生成</t>
+  </si>
+  <si>
+    <t>データベースのテーブル定義を元に、以下を自動生成します。</t>
+  </si>
+  <si>
+    <t>・Javaのモデルクラス</t>
+  </si>
+  <si>
+    <t>・MyBatisのMapper</t>
+  </si>
+  <si>
+    <t>・SQLマッピングXML</t>
+  </si>
+  <si>
+    <t>手作業によるミスを減らし、開発効率を向上を見込んで採用。</t>
+  </si>
+  <si>
+    <t>6. 開発支援ライブラリ</t>
+  </si>
+  <si>
+    <t>6.1 Lombok</t>
+  </si>
+  <si>
+    <t>コード記述量の削減</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -300,7 +469,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>バージョンを統一管理</t>
+      <t>Lombokとは</t>
     </r>
     <r>
       <rPr>
@@ -310,7 +479,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>し、個人差による動作違いを防ぎます。</t>
+      <t>、Javaのコードを簡潔に書くためのライブラリです。</t>
     </r>
   </si>
   <si>
@@ -323,7 +492,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>設定を柔軟に書けて高速に動作し、Spring Bootなどの主流技術と相性が良いため</t>
+      <t>アノテーション</t>
     </r>
     <r>
       <rPr>
@@ -333,293 +502,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、Gradleが選ばれています。</t>
-    </r>
-  </si>
-  <si>
-    <t>2.3 フレームワーク（基盤）</t>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>を付けるだけで、getterやsetterなどの定型コードを自動生成できます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spring開発では</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Spring Bootは、Webアプリケーションを</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>事実上の標準</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>少ない設定で素早く作れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>フレームワークです。</t>
-    </r>
-  </si>
-  <si>
-    <t>サーバ起動や設定が簡単で、業務システムでよく使われます。</t>
-  </si>
-  <si>
-    <t>3. Webアプリケーション関連</t>
-  </si>
-  <si>
-    <t>3.1 Webフレームワーク（サーバサイド）</t>
-  </si>
-  <si>
-    <t>技術</t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>Spring Boot Web</t>
-  </si>
-  <si>
-    <t>Webリクエストの受付、画面表示、API処理</t>
-  </si>
-  <si>
-    <t>ブラウザからのアクセスを受け取り、画面表示、データ処理の役割を担います。</t>
-  </si>
-  <si>
-    <t>3.2 テンプレートエンジン（画面表示）</t>
-  </si>
-  <si>
-    <t>HTML画面の生成</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thymeleafとは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、JavaのWebアプリで使われる画面表示用のテンプレートエンジンです。</t>
-    </r>
-  </si>
-  <si>
-    <t>HTMLにJavaの値を埋め込み、画面を動的に表示できます。</t>
-  </si>
-  <si>
-    <t>HTMLの形を崩さずに書けてSpring Bootと相性が良いため使われています。</t>
-  </si>
-  <si>
-    <t>4. データベース関連</t>
-  </si>
-  <si>
-    <t>4.1 データベース</t>
-  </si>
-  <si>
-    <t>業務データ（商品・在庫など）を保存するためのデータベースです。</t>
-  </si>
-  <si>
-    <t>オープンソースで、業務利用実績が豊富です。</t>
-  </si>
-  <si>
-    <t>4.2 ORM / DBアクセス技術</t>
-  </si>
-  <si>
-    <t>SQLを使ったDB操作</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MyBatisとは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、Javaからデータベースを操作するためのフレームワークです。</t>
-    </r>
-  </si>
-  <si>
-    <t>JavaのコードとSQLを分けて管理できる仕組みを提供します。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>マッパー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>にSQLを定義し、JavaのメソッドとSQLを対応づけます。</t>
-    </r>
-  </si>
-  <si>
-    <t>SQLの実行結果はJavaのクラスとして受け取れます。</t>
-  </si>
-  <si>
-    <t>業務要件に合わせてSQLを細かく制御できる特徴があります。</t>
-  </si>
-  <si>
-    <t>5. ソースコード自動生成</t>
-  </si>
-  <si>
-    <t>5.1 MyBatis Generator（MBG）</t>
-  </si>
-  <si>
-    <t>DB定義からコード自動生成</t>
-  </si>
-  <si>
-    <t>データベースのテーブル定義を元に、以下を自動生成します。</t>
-  </si>
-  <si>
-    <t>Javaのモデルクラス</t>
-  </si>
-  <si>
-    <t>MyBatisのMapper</t>
-  </si>
-  <si>
-    <t>SQLマッピングXML</t>
-  </si>
-  <si>
-    <t>手作業によるミスを減らし、開発効率を向上させます。</t>
-  </si>
-  <si>
-    <t>6. 開発支援ライブラリ</t>
-  </si>
-  <si>
-    <t>6.1 Lombok</t>
-  </si>
-  <si>
-    <t>コード記述量の削減</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lombokとは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、Javaのコードを簡潔に書くためのライブラリです。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>アノテーション</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を付けるだけで、getterやsetterなどの定型コードを自動生成できます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spring開発では</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>事実上の標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>として使われており、開発効率と可読性を高められるため採用されています。</t>
+      <t>として使われており、開発効率と可読性を高められるため採用。</t>
     </r>
   </si>
 </sst>
@@ -628,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -683,6 +592,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
@@ -690,7 +622,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,6 +638,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,18 +674,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,60 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -802,6 +720,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -810,22 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
@@ -848,31 +757,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,139 +907,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,6 +966,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1068,17 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1022,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1126,7 +1044,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,164 +1063,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1315,6 +1224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1882,7 +1792,7 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="4"/>
@@ -1934,7 +1844,7 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="4"/>
@@ -2270,7 +2180,7 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D98" s="4"/>
